--- a/dissertation/saTests/twinPeaksData.xlsx
+++ b/dissertation/saTests/twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markb\Documents\GitHub\uniWork\dissertation\saTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274FB0F6-DF43-4A1A-AFAF-B0C240AD01CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282BEF1-4E6D-4C5C-9B29-D21245FF5ED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5544" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -47,12 +47,15 @@
   <si>
     <t>rt-critics</t>
   </si>
+  <si>
+    <t>u.s-viewers-millions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,24 +87,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -101,15 +112,219 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +340,5149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Season</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 1 - Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>imdb-rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9528-4E40-AC79-3F6E638D7A71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotten-tomatoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9528-4E40-AC79-3F6E638D7A71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rt-critics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9528-4E40-AC79-3F6E638D7A71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1879432336"/>
+        <c:axId val="1921718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1879432336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1921718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879432336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Season 3 - Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CDC-4E64-A65D-BBBA2EC7C206}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CDC-4E64-A65D-BBBA2EC7C206}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CDC-4E64-A65D-BBBA2EC7C206}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1875903152"/>
+        <c:axId val="1872370480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1875903152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872370480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1872370480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875903152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Season</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2 - Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>imdb-rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-865D-4D2E-A4AB-F84ACC92A6D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotten-tomatoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-865D-4D2E-A4AB-F84ACC92A6D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rt-critics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-865D-4D2E-A4AB-F84ACC92A6D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1876533600"/>
+        <c:axId val="1877647264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876533600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877647264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1877647264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876533600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Season 3 - Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>imdb-rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80E3-495D-AB85-94DB89C46D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rotten-tomatoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80E3-495D-AB85-94DB89C46D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rt-critics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-80E3-495D-AB85-94DB89C46D01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1930505856"/>
+        <c:axId val="1872372976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1930505856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872372976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1872372976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930505856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFF938F-3E97-4666-B580-7F21C44EC8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D87460-1998-4E96-9C43-935083D02C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F0CAFA-727D-46DC-907B-593799E75BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6B05C5-1809-414F-B2AB-D417232C1162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,853 +5784,1004 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>8.9</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="11">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="11">
         <v>8</v>
+      </c>
+      <c r="F2" s="12">
+        <v>34.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>8.4</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="14">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="14">
         <v>9</v>
+      </c>
+      <c r="F3" s="15">
+        <v>23.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="14">
         <v>8.6</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="14">
         <v>7</v>
+      </c>
+      <c r="F4" s="15">
+        <v>19.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>8.4</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="14">
         <v>8.6</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="14">
         <v>7</v>
+      </c>
+      <c r="F5" s="15">
+        <v>16.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="14">
         <v>7.1</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="14">
         <v>7</v>
+      </c>
+      <c r="F6" s="15">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>8.6</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="14">
         <v>8.6</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="14">
         <v>7</v>
+      </c>
+      <c r="F7" s="15">
+        <v>17.3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>8.6</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="14">
         <v>7.1</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="14">
         <v>7</v>
+      </c>
+      <c r="F8" s="15">
+        <v>15.6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>9.1</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="17">
         <v>8</v>
+      </c>
+      <c r="F9" s="18">
+        <v>18.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="5">
         <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" s="5">
         <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>13.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="5">
         <v>6.7</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="5">
         <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>8.5</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="5">
         <v>6.7</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="5">
         <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>11.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>8.6</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="5">
         <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>11.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>9.4</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="5">
         <v>10</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="5">
         <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>17.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>8.6</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="5">
         <v>6.7</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="5">
         <v>6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>13.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="5">
         <v>6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12.4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>7.9</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="5">
         <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>11.1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>7.5</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="E20" s="5">
         <v>6</v>
+      </c>
+      <c r="F20" s="6">
+        <v>12.1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>7.6</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E21" s="5">
         <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10.3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>7.8</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="5">
         <v>6</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="5">
         <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>7.7</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="5">
         <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>15</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>7.5</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="E24" s="5">
         <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>7.9</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="5">
         <v>4</v>
       </c>
-      <c r="F25" s="2">
+      <c r="E25" s="5">
         <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>17</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>7.6</v>
       </c>
-      <c r="E26">
+      <c r="D26" s="5">
         <v>8</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E26" s="5">
         <v>5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>8.1</v>
       </c>
-      <c r="E27">
+      <c r="D27" s="5">
         <v>10</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E27" s="5">
         <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>19</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>8.1</v>
       </c>
-      <c r="E28">
+      <c r="D28" s="5">
         <v>10</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E28" s="5">
         <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7.9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E29">
+      <c r="D29" s="5">
         <v>10</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="5">
         <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>8.6</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="5">
         <v>10</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="5">
         <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10.4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>22</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="8">
         <v>6</v>
+      </c>
+      <c r="F31" s="9">
+        <v>10.4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="19">
         <v>3</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="20">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E32">
+      <c r="D32" s="20">
         <v>10</v>
       </c>
-      <c r="F32" s="3">
+      <c r="E32" s="20">
         <v>2.9</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="22">
         <v>3</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="23">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E33">
+      <c r="D33" s="23">
         <v>10</v>
       </c>
-      <c r="F33" s="3">
+      <c r="E33" s="23">
         <v>1.3</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="23">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="23">
         <v>8.5</v>
       </c>
-      <c r="E34">
+      <c r="D34" s="23">
         <v>10</v>
       </c>
-      <c r="F34" s="3">
+      <c r="E34" s="23">
         <v>2.1</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="22">
         <v>3</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="23">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="23">
         <v>8.6</v>
       </c>
-      <c r="E35">
+      <c r="D35" s="23">
         <v>10</v>
       </c>
-      <c r="F35" s="3">
+      <c r="E35" s="23">
         <v>1.4</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="23">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="23">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E36">
+      <c r="D36" s="23">
         <v>10</v>
       </c>
-      <c r="F36" s="3">
+      <c r="E36" s="23">
         <v>1.5</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="22">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="23">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E37">
+      <c r="D37" s="23">
         <v>10</v>
       </c>
-      <c r="F37" s="3">
+      <c r="E37" s="23">
         <v>1.9</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="22">
         <v>3</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="23">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E38">
+      <c r="D38" s="23">
         <v>10</v>
       </c>
-      <c r="F38" s="3">
+      <c r="E38" s="23">
         <v>1.5</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="22">
         <v>3</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="23">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E39">
+      <c r="D39" s="23">
         <v>10</v>
       </c>
-      <c r="F39" s="3">
+      <c r="E39" s="23">
         <v>2.8</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0.246</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="22">
         <v>3</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="23">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="23">
         <v>8.5</v>
       </c>
-      <c r="E40">
+      <c r="D40" s="23">
         <v>10</v>
       </c>
-      <c r="F40" s="3">
+      <c r="E40" s="23">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="22">
         <v>3</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="23">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E41">
+      <c r="D41" s="23">
         <v>10</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E41" s="23">
         <v>1.7</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="22">
         <v>3</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="23">
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="23">
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="23">
         <v>10</v>
       </c>
-      <c r="F42" s="3">
+      <c r="E42" s="23">
         <v>1.6</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.219</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="22">
         <v>3</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="23">
         <v>12</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="23">
         <v>7.8</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="23">
         <v>9</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" s="23">
         <v>2.1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="22">
         <v>3</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="23">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="23">
         <v>8.5</v>
       </c>
-      <c r="E44">
+      <c r="D44" s="23">
         <v>8.9</v>
       </c>
-      <c r="F44" s="3">
+      <c r="E44" s="23">
         <v>1.9</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="22">
         <v>3</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="23">
         <v>14</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="23">
         <v>9.1</v>
       </c>
-      <c r="E45">
+      <c r="D45" s="23">
         <v>10</v>
       </c>
-      <c r="F45" s="3">
+      <c r="E45" s="23">
         <v>2.1</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.253</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="23">
         <v>15</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E46">
+      <c r="D46" s="23">
         <v>10</v>
       </c>
-      <c r="F46" s="3">
+      <c r="E46" s="23">
         <v>2</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="22">
         <v>3</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="23">
         <v>16</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="23">
         <v>9.6</v>
       </c>
-      <c r="E47">
+      <c r="D47" s="23">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
+      <c r="E47" s="23">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="22">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="23">
         <v>17</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="23">
         <v>9.4</v>
       </c>
-      <c r="E48">
+      <c r="D48" s="23">
         <v>9.5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="E48" s="23">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0.254</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="25">
         <v>3</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="26">
         <v>18</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E49">
+      <c r="D49" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F49" s="3">
+      <c r="E49" s="26">
         <v>2.6</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dissertation/saTests/twinPeaksData.xlsx
+++ b/dissertation/saTests/twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markb\Documents\GitHub\uniWork\dissertation\saTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282BEF1-4E6D-4C5C-9B29-D21245FF5ED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C739A5-9E2F-44F3-B31C-7C2B69304BE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>u.s-viewers-millions</t>
+  </si>
+  <si>
+    <t>sentiment-affin-sum</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +326,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5338,16 +5344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20280</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12660</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>119575</xdr:rowOff>
+      <xdr:rowOff>81475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5782,10 +5788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5796,9 +5802,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -5817,8 +5824,11 @@
       <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5837,8 +5847,11 @@
       <c r="F2" s="12">
         <v>34.6</v>
       </c>
+      <c r="G2" s="14">
+        <v>433</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5878,7 +5891,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -5898,7 +5911,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -5918,7 +5931,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -5938,7 +5951,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -5978,7 +5991,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -5998,7 +6011,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -6018,7 +6031,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -6038,7 +6051,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -6058,7 +6071,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -6098,7 +6111,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>

--- a/dissertation/saTests/twinPeaksData.xlsx
+++ b/dissertation/saTests/twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markb\Documents\GitHub\uniWork\dissertation\saTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6EF85-04AF-4D41-9839-1E092CF0C451}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDE6AAA-99C2-40F9-951D-00CCF5F3B622}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -51,10 +51,13 @@
     <t>u.s-viewers-millions</t>
   </si>
   <si>
-    <t xml:space="preserve">sentimen-bing </t>
+    <t>affin-sum</t>
   </si>
   <si>
-    <t>(input) sentiment-affin-sum</t>
+    <t>affin-negatives</t>
+  </si>
+  <si>
+    <t>affin-positive</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,7 +334,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(input) sentiment-affin-sum</c:v>
+                  <c:v>affin-sum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1565,6 +1601,425 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8246-4774-A5F7-AE93B872CF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256752831"/>
+        <c:axId val="392711839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256752831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392711839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392711839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256752831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1645,6 +2100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2149,6 +2644,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2704,14 +3715,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6049</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607181</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>310849</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>302381</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>158448</xdr:rowOff>
     </xdr:to>
@@ -2733,6 +3744,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDB897A-F34E-4F6C-8176-1F767408AC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3038,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,10 +4100,11 @@
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -3075,14 +4123,17 @@
       <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3101,11 +4152,13 @@
       <c r="F2" s="12">
         <v>34.6</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>433</v>
       </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -3124,11 +4177,13 @@
       <c r="F3" s="15">
         <v>23.2</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>292</v>
       </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3147,11 +4202,13 @@
       <c r="F4" s="15">
         <v>19.2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>202</v>
       </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3170,11 +4227,13 @@
       <c r="F5" s="15">
         <v>16.7</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>323</v>
       </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -3193,11 +4252,13 @@
       <c r="F6" s="15">
         <v>17.399999999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>286</v>
       </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3216,11 +4277,13 @@
       <c r="F7" s="15">
         <v>17.3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>289</v>
       </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -3239,11 +4302,13 @@
       <c r="F8" s="15">
         <v>15.6</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>266</v>
       </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -3262,11 +4327,13 @@
       <c r="F9" s="18">
         <v>18.7</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <v>228</v>
       </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3285,8 +4352,13 @@
       <c r="F10" s="3">
         <v>19.100000000000001</v>
       </c>
+      <c r="G10" s="1">
+        <v>463</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3305,8 +4377,13 @@
       <c r="F11" s="6">
         <v>14.4</v>
       </c>
+      <c r="G11" s="4">
+        <v>199</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3325,8 +4402,13 @@
       <c r="F12" s="6">
         <v>13.7</v>
       </c>
+      <c r="G12" s="4">
+        <v>222</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3345,8 +4427,13 @@
       <c r="F13" s="6">
         <v>12.8</v>
       </c>
+      <c r="G13" s="4">
+        <v>241</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -3365,8 +4452,13 @@
       <c r="F14" s="6">
         <v>11.4</v>
       </c>
+      <c r="G14" s="4">
+        <v>198</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -3385,8 +4477,13 @@
       <c r="F15" s="6">
         <v>11.3</v>
       </c>
+      <c r="G15" s="4">
+        <v>323</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -3405,8 +4502,13 @@
       <c r="F16" s="6">
         <v>17.2</v>
       </c>
+      <c r="G16" s="4">
+        <v>188</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -3425,8 +4527,13 @@
       <c r="F17" s="6">
         <v>13.3</v>
       </c>
+      <c r="G17" s="4">
+        <v>311</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -3445,8 +4552,13 @@
       <c r="F18" s="6">
         <v>12.4</v>
       </c>
+      <c r="G18" s="4">
+        <v>253</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -3465,8 +4577,13 @@
       <c r="F19" s="6">
         <v>11.1</v>
       </c>
+      <c r="G19" s="4">
+        <v>304</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -3485,8 +4602,13 @@
       <c r="F20" s="6">
         <v>12.1</v>
       </c>
+      <c r="G20" s="4">
+        <v>273</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -3505,8 +4627,13 @@
       <c r="F21" s="6">
         <v>10.3</v>
       </c>
+      <c r="G21" s="4">
+        <v>298</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -3525,8 +4652,13 @@
       <c r="F22" s="6">
         <v>9.8000000000000007</v>
       </c>
+      <c r="G22" s="4">
+        <v>290</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -3545,8 +4677,13 @@
       <c r="F23" s="6">
         <v>8.6999999999999993</v>
       </c>
+      <c r="G23" s="4">
+        <v>285</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -3565,8 +4702,13 @@
       <c r="F24" s="6">
         <v>8.1999999999999993</v>
       </c>
+      <c r="G24" s="4">
+        <v>304</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -3585,8 +4727,13 @@
       <c r="F25" s="6">
         <v>7.8</v>
       </c>
+      <c r="G25" s="4">
+        <v>318</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -3605,8 +4752,13 @@
       <c r="F26" s="6">
         <v>9.1999999999999993</v>
       </c>
+      <c r="G26" s="4">
+        <v>267</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3625,8 +4777,13 @@
       <c r="F27" s="6">
         <v>9.1999999999999993</v>
       </c>
+      <c r="G27" s="4">
+        <v>304</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -3645,8 +4802,13 @@
       <c r="F28" s="6">
         <v>7.9</v>
       </c>
+      <c r="G28" s="4">
+        <v>321</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -3665,8 +4827,13 @@
       <c r="F29" s="6">
         <v>7.4</v>
       </c>
+      <c r="G29" s="4">
+        <v>288</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -3685,8 +4852,13 @@
       <c r="F30" s="6">
         <v>10.4</v>
       </c>
+      <c r="G30" s="4">
+        <v>260</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>2</v>
       </c>
@@ -3705,8 +4877,13 @@
       <c r="F31" s="9">
         <v>10.4</v>
       </c>
+      <c r="G31" s="7">
+        <v>108</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>3</v>
       </c>
@@ -3725,8 +4902,11 @@
       <c r="F32" s="21">
         <v>0.50600000000000001</v>
       </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>3</v>
       </c>
@@ -3745,8 +4925,11 @@
       <c r="F33" s="24">
         <v>0.50600000000000001</v>
       </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>3</v>
       </c>
@@ -3765,8 +4948,11 @@
       <c r="F34" s="24">
         <v>0.19500000000000001</v>
       </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>3</v>
       </c>
@@ -3785,8 +4971,11 @@
       <c r="F35" s="24">
         <v>0.19500000000000001</v>
       </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>3</v>
       </c>
@@ -3805,8 +4994,11 @@
       <c r="F36" s="24">
         <v>0.254</v>
       </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>3</v>
       </c>
@@ -3825,8 +5017,11 @@
       <c r="F37" s="24">
         <v>0.27</v>
       </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>3</v>
       </c>
@@ -3845,8 +5040,11 @@
       <c r="F38" s="24">
         <v>0.29399999999999998</v>
       </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>3</v>
       </c>
@@ -3865,8 +5063,11 @@
       <c r="F39" s="24">
         <v>0.246</v>
       </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>3</v>
       </c>
@@ -3885,8 +5086,11 @@
       <c r="F40" s="24">
         <v>0.35499999999999998</v>
       </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>3</v>
       </c>
@@ -3905,8 +5109,11 @@
       <c r="F41" s="24">
         <v>0.26700000000000002</v>
       </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>3</v>
       </c>
@@ -3925,8 +5132,11 @@
       <c r="F42" s="24">
         <v>0.219</v>
       </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -3945,8 +5155,11 @@
       <c r="F43" s="24">
         <v>0.24</v>
       </c>
+      <c r="G43" s="41"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>3</v>
       </c>
@@ -3965,8 +5178,11 @@
       <c r="F44" s="24">
         <v>0.28000000000000003</v>
       </c>
+      <c r="G44" s="41"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>3</v>
       </c>
@@ -3985,8 +5201,11 @@
       <c r="F45" s="24">
         <v>0.253</v>
       </c>
+      <c r="G45" s="41"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>3</v>
       </c>
@@ -4005,8 +5224,11 @@
       <c r="F46" s="24">
         <v>0.32900000000000001</v>
       </c>
+      <c r="G46" s="41"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
         <v>3</v>
       </c>
@@ -4025,8 +5247,11 @@
       <c r="F47" s="24">
         <v>0.26700000000000002</v>
       </c>
+      <c r="G47" s="41"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <v>3</v>
       </c>
@@ -4045,8 +5270,11 @@
       <c r="F48" s="24">
         <v>0.254</v>
       </c>
+      <c r="G48" s="41"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>3</v>
       </c>
@@ -4065,6 +5293,9 @@
       <c r="F49" s="27">
         <v>0.24</v>
       </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
